--- a/基礎数理統計学_中間レポート.xlsx
+++ b/基礎数理統計学_中間レポート.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81807\Desktop\大学\2024春\基礎数理統計学\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9D3EA5-1451-400F-ABEB-D329033AACA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9D9A80-9F27-493B-BD36-2AD55AF2E79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13164" yWindow="0" windowWidth="9972" windowHeight="13056" xr2:uid="{25AF5647-080F-4ED5-B1E7-EF9A4780D91C}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{25AF5647-080F-4ED5-B1E7-EF9A4780D91C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
   <si>
     <t>Size</t>
     <phoneticPr fontId="2"/>
@@ -68,7 +68,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="183" formatCode="0.0000"/>
+    <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -150,7 +150,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -487,19 +487,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FEC909-11C8-4A4D-9070-516CD08F767A}">
-  <dimension ref="C4:L19"/>
+  <dimension ref="C4:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="L19" workbookViewId="0">
+      <selection activeCell="P29" sqref="N23:P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="7.69921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="25.8984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.19921875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:12" x14ac:dyDescent="0.45">
@@ -534,7 +537,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="4">
-        <v>0.95320000000000005</v>
+        <v>0.93520000000000003</v>
       </c>
       <c r="H5" s="4">
         <v>0</v>
@@ -708,7 +711,7 @@
         <v>0.93300000000000005</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C17" s="4">
         <v>3</v>
       </c>
@@ -719,7 +722,7 @@
         <v>0.93720000000000003</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C18" s="4">
         <v>4</v>
       </c>
@@ -730,7 +733,7 @@
         <v>0.94220000000000004</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C19" s="4">
         <v>5</v>
       </c>
@@ -738,6 +741,148 @@
         <v>200</v>
       </c>
       <c r="E19" s="6">
+        <v>0.94499999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="D22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="D23" s="4">
+        <v>5</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.93520000000000003</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.88560000000000005</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="D24" s="4">
+        <v>10</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.9446</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.90039999999999998</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0.93520000000000003</v>
+      </c>
+      <c r="O24" s="4">
+        <v>5</v>
+      </c>
+      <c r="P24" s="5">
+        <v>0.88560000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="D25" s="4">
+        <v>30</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="N25" s="5">
+        <v>0.9446</v>
+      </c>
+      <c r="O25" s="4">
+        <v>10</v>
+      </c>
+      <c r="P25" s="5">
+        <v>0.90039999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="D26" s="4">
+        <v>50</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0.94640000000000002</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.93720000000000003</v>
+      </c>
+      <c r="N26" s="6">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="O26" s="4">
+        <v>30</v>
+      </c>
+      <c r="P26" s="6">
+        <v>0.93300000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="D27" s="4">
+        <v>100</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.94620000000000004</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.94220000000000004</v>
+      </c>
+      <c r="N27" s="5">
+        <v>0.94640000000000002</v>
+      </c>
+      <c r="O27" s="4">
+        <v>50</v>
+      </c>
+      <c r="P27" s="5">
+        <v>0.93720000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="D28" s="4">
+        <v>200</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.9546</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="N28" s="5">
+        <v>0.94620000000000004</v>
+      </c>
+      <c r="O28" s="4">
+        <v>100</v>
+      </c>
+      <c r="P28" s="5">
+        <v>0.94220000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="N29" s="5">
+        <v>0.9546</v>
+      </c>
+      <c r="O29" s="4">
+        <v>200</v>
+      </c>
+      <c r="P29" s="6">
         <v>0.94499999999999995</v>
       </c>
     </row>
